--- a/2016.xlsx
+++ b/2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB4C94-3F0E-45CC-BA4A-637176BC740F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66923C2-EE29-4449-B78C-51FEA1C32FDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="525" windowWidth="21450" windowHeight="14670" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="1695" yWindow="270" windowWidth="21450" windowHeight="14385" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Depth" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="517">
   <si>
     <t>TD</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Win?</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -1541,6 +1538,57 @@
   </si>
   <si>
     <t>Andy Teasdall</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>Unranked</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>SC State</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Wake</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Alabama</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1896,6 +1944,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3478,7 +3529,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3781,10 +3832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
-  <dimension ref="A1:T130"/>
+  <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3880,10 +3931,10 @@
         <v>73</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>15</v>
@@ -3895,10 +3946,10 @@
         <v>290</v>
       </c>
       <c r="O2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="Q2" t="str">
         <f>MONTH(M2) &amp; "'" &amp; DAY(M2)</f>
@@ -3940,13 +3991,13 @@
         <v>21</v>
       </c>
       <c r="J3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="M3" s="24">
         <v>43596</v>
@@ -3955,10 +4006,10 @@
         <v>180</v>
       </c>
       <c r="O3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q66" si="5">MONTH(M3) &amp; "'" &amp; DAY(M3)</f>
@@ -3997,10 +4048,10 @@
         <v>18</v>
       </c>
       <c r="J4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>15</v>
@@ -4012,10 +4063,10 @@
         <v>175</v>
       </c>
       <c r="O4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="34" t="s">
         <v>84</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>85</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="5"/>
@@ -4054,10 +4105,10 @@
         <v>96</v>
       </c>
       <c r="J5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>15</v>
@@ -4069,10 +4120,10 @@
         <v>200</v>
       </c>
       <c r="O5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="5"/>
@@ -4111,10 +4162,10 @@
         <v>11</v>
       </c>
       <c r="J6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>15</v>
@@ -4126,10 +4177,10 @@
         <v>220</v>
       </c>
       <c r="O6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="34" t="s">
         <v>92</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>93</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="5"/>
@@ -4168,13 +4219,13 @@
         <v>61</v>
       </c>
       <c r="J7" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>95</v>
-      </c>
       <c r="L7" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="24">
         <v>43619</v>
@@ -4183,10 +4234,10 @@
         <v>265</v>
       </c>
       <c r="O7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="36" t="s">
         <v>96</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="5"/>
@@ -4225,13 +4276,13 @@
         <v>60</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="21">
         <v>43618</v>
@@ -4240,10 +4291,10 @@
         <v>265</v>
       </c>
       <c r="O8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="5"/>
@@ -4282,13 +4333,13 @@
         <v>10</v>
       </c>
       <c r="J9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="L9" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="M9" s="27">
         <v>36678</v>
@@ -4297,10 +4348,10 @@
         <v>235</v>
       </c>
       <c r="O9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="36" t="s">
         <v>102</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>103</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="5"/>
@@ -4336,13 +4387,13 @@
         <v>40</v>
       </c>
       <c r="J10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="L10" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M10" s="21">
         <v>43618</v>
@@ -4351,10 +4402,10 @@
         <v>215</v>
       </c>
       <c r="O10" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>107</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="5"/>
@@ -4390,13 +4441,13 @@
         <v>91</v>
       </c>
       <c r="J11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="M11" s="24">
         <v>43620</v>
@@ -4405,10 +4456,10 @@
         <v>265</v>
       </c>
       <c r="O11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="36" t="s">
         <v>110</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>111</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="5"/>
@@ -4444,13 +4495,13 @@
         <v>2</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M12" s="21">
         <v>43619</v>
@@ -4459,10 +4510,10 @@
         <v>215</v>
       </c>
       <c r="O12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>114</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="5"/>
@@ -4498,13 +4549,13 @@
         <v>8</v>
       </c>
       <c r="J13" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="L13" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M13" s="24">
         <v>43617</v>
@@ -4513,10 +4564,10 @@
         <v>210</v>
       </c>
       <c r="O13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="36" t="s">
         <v>117</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>118</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="5"/>
@@ -4552,13 +4603,13 @@
         <v>31</v>
       </c>
       <c r="J14" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="L14" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="21">
         <v>43594</v>
@@ -4567,10 +4618,10 @@
         <v>180</v>
       </c>
       <c r="O14" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="5"/>
@@ -4606,10 +4657,10 @@
         <v>59</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L15" s="22" t="s">
         <v>15</v>
@@ -4621,10 +4672,10 @@
         <v>305</v>
       </c>
       <c r="O15" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>124</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>125</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="5"/>
@@ -4659,10 +4710,10 @@
         <v>25</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>15</v>
@@ -4674,10 +4725,10 @@
         <v>235</v>
       </c>
       <c r="O16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="34" t="s">
         <v>127</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>128</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="5"/>
@@ -4712,10 +4763,10 @@
         <v>18</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>15</v>
@@ -4727,10 +4778,10 @@
         <v>175</v>
       </c>
       <c r="O17" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="36" t="s">
         <v>130</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>131</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="5"/>
@@ -4766,13 +4817,13 @@
         <v>26</v>
       </c>
       <c r="J18" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="L18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M18" s="21">
         <v>43594</v>
@@ -4781,10 +4832,10 @@
         <v>210</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="5"/>
@@ -4819,10 +4870,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" s="22" t="s">
         <v>15</v>
@@ -4834,10 +4885,10 @@
         <v>205</v>
       </c>
       <c r="O19" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>137</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="5"/>
@@ -4873,10 +4924,10 @@
         <v>32</v>
       </c>
       <c r="J20" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>15</v>
@@ -4888,10 +4939,10 @@
         <v>180</v>
       </c>
       <c r="O20" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="5"/>
@@ -4927,13 +4978,13 @@
         <v>55</v>
       </c>
       <c r="J21" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="L21" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="24">
         <v>43618</v>
@@ -4942,10 +4993,10 @@
         <v>340</v>
       </c>
       <c r="O21" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="36" t="s">
         <v>144</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>145</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="5"/>
@@ -4981,13 +5032,13 @@
         <v>33</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M22" s="21">
         <v>43618</v>
@@ -4996,10 +5047,10 @@
         <v>225</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="5"/>
@@ -5035,13 +5086,13 @@
         <v>36</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M23" s="24">
         <v>43617</v>
@@ -5050,10 +5101,10 @@
         <v>235</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="5"/>
@@ -5088,10 +5139,10 @@
         <v>7</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>15</v>
@@ -5103,10 +5154,10 @@
         <v>210</v>
       </c>
       <c r="O24" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="34" t="s">
         <v>150</v>
-      </c>
-      <c r="P24" s="34" t="s">
-        <v>151</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="5"/>
@@ -5141,10 +5192,10 @@
         <v>9</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>15</v>
@@ -5156,10 +5207,10 @@
         <v>175</v>
       </c>
       <c r="O25" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="36" t="s">
         <v>153</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>154</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="5"/>
@@ -5195,13 +5246,13 @@
         <v>82</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M26" s="21">
         <v>43592</v>
@@ -5210,10 +5261,10 @@
         <v>180</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P26" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="5"/>
@@ -5249,13 +5300,13 @@
         <v>22</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M27" s="24">
         <v>43596</v>
@@ -5264,10 +5315,10 @@
         <v>220</v>
       </c>
       <c r="O27" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="P27" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>158</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="5"/>
@@ -5303,13 +5354,13 @@
         <v>29</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="M28" s="28">
         <v>36678</v>
@@ -5318,10 +5369,10 @@
         <v>175</v>
       </c>
       <c r="O28" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="34" t="s">
         <v>160</v>
-      </c>
-      <c r="P28" s="34" t="s">
-        <v>161</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="5"/>
@@ -5357,13 +5408,13 @@
         <v>62</v>
       </c>
       <c r="J29" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="22" t="s">
-        <v>163</v>
-      </c>
       <c r="L29" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M29" s="27">
         <v>36678</v>
@@ -5372,10 +5423,10 @@
         <v>200</v>
       </c>
       <c r="O29" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P29" s="36" t="s">
         <v>164</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>165</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="5"/>
@@ -5411,13 +5462,13 @@
         <v>50</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M30" s="21">
         <v>43620</v>
@@ -5426,10 +5477,10 @@
         <v>315</v>
       </c>
       <c r="O30" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="P30" s="34" t="s">
         <v>167</v>
-      </c>
-      <c r="P30" s="34" t="s">
-        <v>168</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="5"/>
@@ -5464,10 +5515,10 @@
         <v>28</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>15</v>
@@ -5479,10 +5530,10 @@
         <v>210</v>
       </c>
       <c r="O31" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>171</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="5"/>
@@ -5518,10 +5569,10 @@
         <v>99</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>15</v>
@@ -5533,10 +5584,10 @@
         <v>265</v>
       </c>
       <c r="O32" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="P32" s="34" t="s">
         <v>173</v>
-      </c>
-      <c r="P32" s="34" t="s">
-        <v>174</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="5"/>
@@ -5572,13 +5623,13 @@
         <v>2</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M33" s="24">
         <v>43595</v>
@@ -5587,10 +5638,10 @@
         <v>180</v>
       </c>
       <c r="O33" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" s="36" t="s">
         <v>176</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>177</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="5"/>
@@ -5626,10 +5677,10 @@
         <v>83</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L34" s="19" t="s">
         <v>15</v>
@@ -5641,10 +5692,10 @@
         <v>215</v>
       </c>
       <c r="O34" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P34" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="P34" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="5"/>
@@ -5680,13 +5731,13 @@
         <v>63</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M35" s="24">
         <v>43621</v>
@@ -5695,10 +5746,10 @@
         <v>290</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="5"/>
@@ -5734,13 +5785,13 @@
         <v>27</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M36" s="21">
         <v>43595</v>
@@ -5749,10 +5800,10 @@
         <v>215</v>
       </c>
       <c r="O36" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36" s="34" t="s">
         <v>184</v>
-      </c>
-      <c r="P36" s="34" t="s">
-        <v>185</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="5"/>
@@ -5788,13 +5839,13 @@
         <v>9</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M37" s="27">
         <v>36678</v>
@@ -5803,10 +5854,10 @@
         <v>210</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="5"/>
@@ -5842,10 +5893,10 @@
         <v>77</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L38" s="19" t="s">
         <v>15</v>
@@ -5857,10 +5908,10 @@
         <v>300</v>
       </c>
       <c r="O38" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="P38" s="34" t="s">
         <v>189</v>
-      </c>
-      <c r="P38" s="34" t="s">
-        <v>190</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="5"/>
@@ -5896,10 +5947,10 @@
         <v>64</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L39" s="22" t="s">
         <v>15</v>
@@ -5911,10 +5962,10 @@
         <v>270</v>
       </c>
       <c r="O39" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="P39" s="36" t="s">
         <v>192</v>
-      </c>
-      <c r="P39" s="36" t="s">
-        <v>193</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="5"/>
@@ -5950,10 +6001,10 @@
         <v>71</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40" s="19" t="s">
         <v>15</v>
@@ -5965,10 +6016,10 @@
         <v>290</v>
       </c>
       <c r="O40" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="P40" s="34" t="s">
         <v>195</v>
-      </c>
-      <c r="P40" s="34" t="s">
-        <v>196</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="5"/>
@@ -6004,13 +6055,13 @@
         <v>87</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M41" s="24">
         <v>43617</v>
@@ -6019,10 +6070,10 @@
         <v>245</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="5"/>
@@ -6057,10 +6108,10 @@
         <v>83</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>15</v>
@@ -6072,10 +6123,10 @@
         <v>180</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P42" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="5"/>
@@ -6111,13 +6162,13 @@
         <v>39</v>
       </c>
       <c r="J43" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K43" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="K43" s="22" t="s">
-        <v>200</v>
-      </c>
       <c r="L43" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M43" s="24">
         <v>43595</v>
@@ -6126,10 +6177,10 @@
         <v>185</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="5"/>
@@ -6165,13 +6216,13 @@
         <v>57</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M44" s="21">
         <v>43619</v>
@@ -6180,10 +6231,10 @@
         <v>310</v>
       </c>
       <c r="O44" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="P44" s="34" t="s">
         <v>202</v>
-      </c>
-      <c r="P44" s="34" t="s">
-        <v>203</v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="5"/>
@@ -6219,13 +6270,13 @@
         <v>51</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M45" s="24">
         <v>43621</v>
@@ -6234,10 +6285,10 @@
         <v>325</v>
       </c>
       <c r="O45" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="P45" s="36" t="s">
         <v>205</v>
-      </c>
-      <c r="P45" s="36" t="s">
-        <v>206</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="5"/>
@@ -6273,13 +6324,13 @@
         <v>92</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M46" s="21">
         <v>43596</v>
@@ -6288,10 +6339,10 @@
         <v>195</v>
       </c>
       <c r="O46" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="P46" s="34" t="s">
         <v>208</v>
-      </c>
-      <c r="P46" s="34" t="s">
-        <v>209</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="5"/>
@@ -6327,13 +6378,13 @@
         <v>67</v>
       </c>
       <c r="J47" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K47" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="K47" s="22" t="s">
-        <v>211</v>
-      </c>
       <c r="L47" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M47" s="24">
         <v>43619</v>
@@ -6342,10 +6393,10 @@
         <v>305</v>
       </c>
       <c r="O47" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="P47" s="36" t="s">
         <v>212</v>
-      </c>
-      <c r="P47" s="36" t="s">
-        <v>213</v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="5"/>
@@ -6381,13 +6432,13 @@
         <v>75</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M48" s="21">
         <v>43621</v>
@@ -6396,10 +6447,10 @@
         <v>295</v>
       </c>
       <c r="O48" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="P48" s="34" t="s">
         <v>215</v>
-      </c>
-      <c r="P48" s="34" t="s">
-        <v>216</v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="5"/>
@@ -6435,10 +6486,10 @@
         <v>10</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L49" s="22" t="s">
         <v>15</v>
@@ -6450,10 +6501,10 @@
         <v>180</v>
       </c>
       <c r="O49" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="P49" s="36" t="s">
         <v>218</v>
-      </c>
-      <c r="P49" s="36" t="s">
-        <v>219</v>
       </c>
       <c r="Q49" t="str">
         <f t="shared" si="5"/>
@@ -6488,13 +6539,13 @@
         <v>37</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M50" s="21">
         <v>43618</v>
@@ -6503,10 +6554,10 @@
         <v>200</v>
       </c>
       <c r="O50" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="P50" s="34" t="s">
         <v>221</v>
-      </c>
-      <c r="P50" s="34" t="s">
-        <v>222</v>
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="5"/>
@@ -6542,10 +6593,10 @@
         <v>14</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L51" s="22" t="s">
         <v>15</v>
@@ -6557,10 +6608,10 @@
         <v>195</v>
       </c>
       <c r="O51" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="P51" s="36" t="s">
         <v>224</v>
-      </c>
-      <c r="P51" s="36" t="s">
-        <v>225</v>
       </c>
       <c r="Q51" t="str">
         <f t="shared" si="5"/>
@@ -6596,13 +6647,13 @@
         <v>18</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M52" s="28">
         <v>36678</v>
@@ -6611,10 +6662,10 @@
         <v>210</v>
       </c>
       <c r="O52" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="P52" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="P52" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="5"/>
@@ -6650,10 +6701,10 @@
         <v>93</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L53" s="22" t="s">
         <v>15</v>
@@ -6665,10 +6716,10 @@
         <v>305</v>
       </c>
       <c r="O53" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="P53" s="36" t="s">
         <v>228</v>
-      </c>
-      <c r="P53" s="36" t="s">
-        <v>229</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="5"/>
@@ -6704,13 +6755,13 @@
         <v>34</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M54" s="28">
         <v>36678</v>
@@ -6719,10 +6770,10 @@
         <v>230</v>
       </c>
       <c r="O54" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="P54" s="34" t="s">
         <v>231</v>
-      </c>
-      <c r="P54" s="34" t="s">
-        <v>232</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="5"/>
@@ -6757,10 +6808,10 @@
         <v>22</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L55" s="22" t="s">
         <v>15</v>
@@ -6772,10 +6823,10 @@
         <v>265</v>
       </c>
       <c r="O55" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="P55" s="36" t="s">
         <v>234</v>
-      </c>
-      <c r="P55" s="36" t="s">
-        <v>235</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="5"/>
@@ -6810,10 +6861,10 @@
         <v>97</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L56" s="19" t="s">
         <v>15</v>
@@ -6825,10 +6876,10 @@
         <v>215</v>
       </c>
       <c r="O56" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="P56" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="P56" s="34" t="s">
-        <v>238</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="5"/>
@@ -6863,10 +6914,10 @@
         <v>57</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L57" s="22" t="s">
         <v>15</v>
@@ -6878,10 +6929,10 @@
         <v>240</v>
       </c>
       <c r="O57" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="P57" s="36" t="s">
         <v>240</v>
-      </c>
-      <c r="P57" s="36" t="s">
-        <v>241</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="5"/>
@@ -6916,10 +6967,10 @@
         <v>90</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L58" s="19" t="s">
         <v>15</v>
@@ -6931,10 +6982,10 @@
         <v>340</v>
       </c>
       <c r="O58" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="P58" s="34" t="s">
         <v>243</v>
-      </c>
-      <c r="P58" s="34" t="s">
-        <v>244</v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="5"/>
@@ -6970,13 +7021,13 @@
         <v>16</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M59" s="24">
         <v>43621</v>
@@ -6985,10 +7036,10 @@
         <v>260</v>
       </c>
       <c r="O59" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="P59" s="36" t="s">
         <v>246</v>
-      </c>
-      <c r="P59" s="36" t="s">
-        <v>247</v>
       </c>
       <c r="Q59" t="str">
         <f t="shared" si="5"/>
@@ -7023,10 +7074,10 @@
         <v>89</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L60" s="19" t="s">
         <v>15</v>
@@ -7038,10 +7089,10 @@
         <v>175</v>
       </c>
       <c r="O60" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="P60" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="P60" s="34" t="s">
-        <v>250</v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" si="5"/>
@@ -7077,13 +7128,13 @@
         <v>88</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M61" s="24">
         <v>43620</v>
@@ -7092,10 +7143,10 @@
         <v>200</v>
       </c>
       <c r="O61" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="P61" s="36" t="s">
         <v>252</v>
-      </c>
-      <c r="P61" s="36" t="s">
-        <v>253</v>
       </c>
       <c r="Q61" t="str">
         <f t="shared" si="5"/>
@@ -7131,13 +7182,13 @@
         <v>46</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M62" s="21">
         <v>43596</v>
@@ -7146,10 +7197,10 @@
         <v>215</v>
       </c>
       <c r="O62" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="P62" s="34" t="s">
         <v>255</v>
-      </c>
-      <c r="P62" s="34" t="s">
-        <v>256</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="5"/>
@@ -7185,13 +7236,13 @@
         <v>34</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M63" s="24">
         <v>43595</v>
@@ -7200,10 +7251,10 @@
         <v>180</v>
       </c>
       <c r="O63" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P63" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="5"/>
@@ -7239,13 +7290,13 @@
         <v>69</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M64" s="21">
         <v>43620</v>
@@ -7254,10 +7305,10 @@
         <v>305</v>
       </c>
       <c r="O64" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="P64" s="34" t="s">
         <v>260</v>
-      </c>
-      <c r="P64" s="34" t="s">
-        <v>261</v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="5"/>
@@ -7292,10 +7343,10 @@
         <v>40</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L65" s="22" t="s">
         <v>15</v>
@@ -7307,10 +7358,10 @@
         <v>170</v>
       </c>
       <c r="O65" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="P65" s="36" t="s">
         <v>263</v>
-      </c>
-      <c r="P65" s="36" t="s">
-        <v>264</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="5"/>
@@ -7345,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L66" s="19" t="s">
         <v>15</v>
@@ -7360,10 +7411,10 @@
         <v>185</v>
       </c>
       <c r="O66" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="P66" s="34" t="s">
         <v>266</v>
-      </c>
-      <c r="P66" s="34" t="s">
-        <v>267</v>
       </c>
       <c r="Q66" t="str">
         <f t="shared" si="5"/>
@@ -7399,10 +7450,10 @@
         <v>19</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L67" s="22" t="s">
         <v>15</v>
@@ -7414,10 +7465,10 @@
         <v>220</v>
       </c>
       <c r="O67" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="P67" s="36" t="s">
         <v>269</v>
-      </c>
-      <c r="P67" s="36" t="s">
-        <v>270</v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" ref="Q67:Q120" si="16">MONTH(M67) &amp; "'" &amp; DAY(M67)</f>
@@ -7453,13 +7504,13 @@
         <v>6</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M68" s="21">
         <v>43617</v>
@@ -7468,10 +7519,10 @@
         <v>215</v>
       </c>
       <c r="O68" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="P68" s="34" t="s">
         <v>272</v>
-      </c>
-      <c r="P68" s="34" t="s">
-        <v>273</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" si="16"/>
@@ -7506,10 +7557,10 @@
         <v>14</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L69" s="22" t="s">
         <v>15</v>
@@ -7521,10 +7572,10 @@
         <v>200</v>
       </c>
       <c r="O69" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="P69" s="36" t="s">
         <v>275</v>
-      </c>
-      <c r="P69" s="36" t="s">
-        <v>276</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="16"/>
@@ -7560,13 +7611,13 @@
         <v>56</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M70" s="21">
         <v>43619</v>
@@ -7575,10 +7626,10 @@
         <v>295</v>
       </c>
       <c r="O70" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="P70" s="34" t="s">
         <v>278</v>
-      </c>
-      <c r="P70" s="34" t="s">
-        <v>279</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="16"/>
@@ -7614,10 +7665,10 @@
         <v>70</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L71" s="22" t="s">
         <v>15</v>
@@ -7629,10 +7680,10 @@
         <v>320</v>
       </c>
       <c r="O71" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="P71" s="36" t="s">
         <v>281</v>
-      </c>
-      <c r="P71" s="36" t="s">
-        <v>282</v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="16"/>
@@ -7667,10 +7718,10 @@
         <v>58</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L72" s="19" t="s">
         <v>15</v>
@@ -7682,10 +7733,10 @@
         <v>200</v>
       </c>
       <c r="O72" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="P72" s="34" t="s">
         <v>284</v>
-      </c>
-      <c r="P72" s="34" t="s">
-        <v>285</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="16"/>
@@ -7720,10 +7771,10 @@
         <v>92</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L73" s="22" t="s">
         <v>15</v>
@@ -7735,10 +7786,10 @@
         <v>295</v>
       </c>
       <c r="O73" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="P73" s="36" t="s">
         <v>287</v>
-      </c>
-      <c r="P73" s="36" t="s">
-        <v>288</v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="16"/>
@@ -7773,10 +7824,10 @@
         <v>76</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L74" s="19" t="s">
         <v>15</v>
@@ -7788,10 +7839,10 @@
         <v>315</v>
       </c>
       <c r="O74" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="P74" s="34" t="s">
         <v>290</v>
-      </c>
-      <c r="P74" s="34" t="s">
-        <v>291</v>
       </c>
       <c r="Q74" t="str">
         <f t="shared" si="16"/>
@@ -7826,10 +7877,10 @@
         <v>17</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L75" s="22" t="s">
         <v>15</v>
@@ -7841,10 +7892,10 @@
         <v>200</v>
       </c>
       <c r="O75" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="P75" s="36" t="s">
         <v>293</v>
-      </c>
-      <c r="P75" s="36" t="s">
-        <v>294</v>
       </c>
       <c r="Q75" t="str">
         <f t="shared" si="16"/>
@@ -7880,13 +7931,13 @@
         <v>52</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M76" s="21">
         <v>43596</v>
@@ -7895,10 +7946,10 @@
         <v>220</v>
       </c>
       <c r="O76" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="P76" s="34" t="s">
         <v>296</v>
-      </c>
-      <c r="P76" s="34" t="s">
-        <v>297</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="16"/>
@@ -7933,13 +7984,13 @@
         <v>41</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M77" s="24">
         <v>43617</v>
@@ -7948,10 +7999,10 @@
         <v>255</v>
       </c>
       <c r="O77" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="P77" s="36" t="s">
         <v>299</v>
-      </c>
-      <c r="P77" s="36" t="s">
-        <v>300</v>
       </c>
       <c r="Q77" t="str">
         <f t="shared" si="16"/>
@@ -7986,10 +8037,10 @@
         <v>78</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L78" s="19" t="s">
         <v>15</v>
@@ -8001,10 +8052,10 @@
         <v>280</v>
       </c>
       <c r="O78" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="P78" s="34" t="s">
         <v>302</v>
-      </c>
-      <c r="P78" s="34" t="s">
-        <v>303</v>
       </c>
       <c r="Q78" t="str">
         <f t="shared" si="16"/>
@@ -8040,13 +8091,13 @@
         <v>45</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M79" s="24">
         <v>43619</v>
@@ -8055,10 +8106,10 @@
         <v>255</v>
       </c>
       <c r="O79" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="P79" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="P79" s="36" t="s">
-        <v>306</v>
       </c>
       <c r="Q79" t="str">
         <f t="shared" si="16"/>
@@ -8093,10 +8144,10 @@
         <v>21</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L80" s="19" t="s">
         <v>15</v>
@@ -8108,10 +8159,10 @@
         <v>190</v>
       </c>
       <c r="O80" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P80" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="P80" s="34" t="s">
-        <v>103</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="16"/>
@@ -8147,13 +8198,13 @@
         <v>13</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M81" s="24">
         <v>43596</v>
@@ -8162,10 +8213,10 @@
         <v>180</v>
       </c>
       <c r="O81" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="P81" s="36" t="s">
         <v>309</v>
-      </c>
-      <c r="P81" s="36" t="s">
-        <v>310</v>
       </c>
       <c r="Q81" t="str">
         <f t="shared" si="16"/>
@@ -8201,13 +8252,13 @@
         <v>80</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M82" s="21">
         <v>43619</v>
@@ -8216,10 +8267,10 @@
         <v>260</v>
       </c>
       <c r="O82" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="P82" s="34" t="s">
         <v>312</v>
-      </c>
-      <c r="P82" s="34" t="s">
-        <v>313</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="16"/>
@@ -8255,13 +8306,13 @@
         <v>50</v>
       </c>
       <c r="J83" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="K83" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="K83" s="22" t="s">
-        <v>315</v>
-      </c>
       <c r="L83" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M83" s="24">
         <v>43618</v>
@@ -8270,10 +8321,10 @@
         <v>265</v>
       </c>
       <c r="O83" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="P83" s="36" t="s">
         <v>316</v>
-      </c>
-      <c r="P83" s="36" t="s">
-        <v>317</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" si="16"/>
@@ -8308,10 +8359,10 @@
         <v>79</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L84" s="19" t="s">
         <v>15</v>
@@ -8323,10 +8374,10 @@
         <v>320</v>
       </c>
       <c r="O84" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="P84" s="34" t="s">
         <v>319</v>
-      </c>
-      <c r="P84" s="34" t="s">
-        <v>320</v>
       </c>
       <c r="Q84" t="str">
         <f t="shared" si="16"/>
@@ -8362,13 +8413,13 @@
         <v>85</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M85" s="27">
         <v>36678</v>
@@ -8377,10 +8428,10 @@
         <v>180</v>
       </c>
       <c r="O85" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="P85" s="36" t="s">
         <v>322</v>
-      </c>
-      <c r="P85" s="36" t="s">
-        <v>323</v>
       </c>
       <c r="Q85" t="str">
         <f t="shared" si="16"/>
@@ -8416,13 +8467,13 @@
         <v>12</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M86" s="21">
         <v>43620</v>
@@ -8431,10 +8482,10 @@
         <v>200</v>
       </c>
       <c r="O86" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P86" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="P86" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="Q86" t="str">
         <f t="shared" si="16"/>
@@ -8470,13 +8521,13 @@
         <v>3</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M87" s="24">
         <v>43595</v>
@@ -8485,10 +8536,10 @@
         <v>190</v>
       </c>
       <c r="O87" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="P87" s="36" t="s">
         <v>326</v>
-      </c>
-      <c r="P87" s="36" t="s">
-        <v>327</v>
       </c>
       <c r="Q87" t="str">
         <f t="shared" si="16"/>
@@ -8524,13 +8575,13 @@
         <v>37</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L88" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M88" s="21">
         <v>43595</v>
@@ -8539,10 +8590,10 @@
         <v>210</v>
       </c>
       <c r="O88" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="P88" s="34" t="s">
         <v>329</v>
-      </c>
-      <c r="P88" s="34" t="s">
-        <v>330</v>
       </c>
       <c r="Q88" t="str">
         <f t="shared" si="16"/>
@@ -8577,13 +8628,13 @@
         <v>54</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M89" s="24">
         <v>43618</v>
@@ -8592,10 +8643,10 @@
         <v>220</v>
       </c>
       <c r="O89" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="P89" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="P89" s="36" t="s">
-        <v>333</v>
       </c>
       <c r="Q89" t="str">
         <f t="shared" si="16"/>
@@ -8630,10 +8681,10 @@
         <v>11</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L90" s="19" t="s">
         <v>15</v>
@@ -8645,10 +8696,10 @@
         <v>220</v>
       </c>
       <c r="O90" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="P90" s="34" t="s">
         <v>335</v>
-      </c>
-      <c r="P90" s="34" t="s">
-        <v>336</v>
       </c>
       <c r="Q90" t="str">
         <f t="shared" si="16"/>
@@ -8683,10 +8734,10 @@
         <v>74</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L91" s="22" t="s">
         <v>15</v>
@@ -8698,10 +8749,10 @@
         <v>315</v>
       </c>
       <c r="O91" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="P91" s="36" t="s">
         <v>338</v>
-      </c>
-      <c r="P91" s="36" t="s">
-        <v>339</v>
       </c>
       <c r="Q91" t="str">
         <f t="shared" si="16"/>
@@ -8736,10 +8787,10 @@
         <v>47</v>
       </c>
       <c r="J92" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L92" s="19" t="s">
         <v>15</v>
@@ -8751,10 +8802,10 @@
         <v>235</v>
       </c>
       <c r="O92" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="P92" s="34" t="s">
         <v>341</v>
-      </c>
-      <c r="P92" s="34" t="s">
-        <v>342</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" si="16"/>
@@ -8790,13 +8841,13 @@
         <v>84</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M93" s="24">
         <v>43621</v>
@@ -8805,10 +8856,10 @@
         <v>265</v>
       </c>
       <c r="O93" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P93" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q93" t="str">
         <f t="shared" si="16"/>
@@ -8844,10 +8895,10 @@
         <v>43</v>
       </c>
       <c r="J94" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L94" s="19" t="s">
         <v>15</v>
@@ -8859,10 +8910,10 @@
         <v>235</v>
       </c>
       <c r="O94" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="P94" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="P94" s="34" t="s">
-        <v>347</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" si="16"/>
@@ -8897,10 +8948,10 @@
         <v>5</v>
       </c>
       <c r="J95" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L95" s="22" t="s">
         <v>15</v>
@@ -8912,10 +8963,10 @@
         <v>240</v>
       </c>
       <c r="O95" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="P95" s="36" t="s">
         <v>349</v>
-      </c>
-      <c r="P95" s="36" t="s">
-        <v>350</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" si="16"/>
@@ -8951,13 +9002,13 @@
         <v>23</v>
       </c>
       <c r="J96" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M96" s="21">
         <v>43596</v>
@@ -8966,10 +9017,10 @@
         <v>195</v>
       </c>
       <c r="O96" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P96" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="P96" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="Q96" t="str">
         <f t="shared" si="16"/>
@@ -9005,13 +9056,13 @@
         <v>47</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M97" s="24">
         <v>43617</v>
@@ -9020,10 +9071,10 @@
         <v>195</v>
       </c>
       <c r="O97" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P97" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q97" t="str">
         <f t="shared" si="16"/>
@@ -9059,10 +9110,10 @@
         <v>52</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L98" s="19" t="s">
         <v>15</v>
@@ -9074,10 +9125,10 @@
         <v>195</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P98" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q98" t="str">
         <f t="shared" si="16"/>
@@ -9112,10 +9163,10 @@
         <v>48</v>
       </c>
       <c r="J99" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L99" s="22" t="s">
         <v>15</v>
@@ -9127,10 +9178,10 @@
         <v>230</v>
       </c>
       <c r="O99" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="P99" s="36" t="s">
         <v>356</v>
-      </c>
-      <c r="P99" s="36" t="s">
-        <v>357</v>
       </c>
       <c r="Q99" t="str">
         <f t="shared" si="16"/>
@@ -9165,10 +9216,10 @@
         <v>62</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L100" s="19" t="s">
         <v>15</v>
@@ -9180,10 +9231,10 @@
         <v>290</v>
       </c>
       <c r="O100" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P100" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="P100" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="Q100" t="str">
         <f t="shared" si="16"/>
@@ -9218,13 +9269,13 @@
         <v>20</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M101" s="24">
         <v>43593</v>
@@ -9233,10 +9284,10 @@
         <v>160</v>
       </c>
       <c r="O101" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="P101" s="36" t="s">
         <v>360</v>
-      </c>
-      <c r="P101" s="36" t="s">
-        <v>361</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="16"/>
@@ -9272,13 +9323,13 @@
         <v>25</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M102" s="21">
         <v>43617</v>
@@ -9287,10 +9338,10 @@
         <v>200</v>
       </c>
       <c r="O102" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="P102" s="34" t="s">
         <v>363</v>
-      </c>
-      <c r="P102" s="34" t="s">
-        <v>364</v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="16"/>
@@ -9326,13 +9377,13 @@
         <v>59</v>
       </c>
       <c r="J103" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M103" s="24">
         <v>43596</v>
@@ -9341,10 +9392,10 @@
         <v>225</v>
       </c>
       <c r="O103" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P103" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q103" t="str">
         <f t="shared" si="16"/>
@@ -9380,13 +9431,13 @@
         <v>32</v>
       </c>
       <c r="J104" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M104" s="21">
         <v>43596</v>
@@ -9395,10 +9446,10 @@
         <v>190</v>
       </c>
       <c r="O104" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="P104" s="34" t="s">
         <v>368</v>
-      </c>
-      <c r="P104" s="34" t="s">
-        <v>369</v>
       </c>
       <c r="Q104" t="str">
         <f t="shared" si="16"/>
@@ -9434,10 +9485,10 @@
         <v>86</v>
       </c>
       <c r="J105" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L105" s="22" t="s">
         <v>15</v>
@@ -9449,10 +9500,10 @@
         <v>220</v>
       </c>
       <c r="O105" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P105" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="16"/>
@@ -9488,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="J106" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M106" s="21">
         <v>43618</v>
@@ -9503,10 +9554,10 @@
         <v>200</v>
       </c>
       <c r="O106" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="P106" s="34" t="s">
         <v>373</v>
-      </c>
-      <c r="P106" s="34" t="s">
-        <v>374</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="16"/>
@@ -9542,10 +9593,10 @@
         <v>72</v>
       </c>
       <c r="J107" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L107" s="22" t="s">
         <v>15</v>
@@ -9557,10 +9608,10 @@
         <v>300</v>
       </c>
       <c r="O107" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="P107" s="36" t="s">
         <v>376</v>
-      </c>
-      <c r="P107" s="36" t="s">
-        <v>377</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="16"/>
@@ -9596,10 +9647,10 @@
         <v>38</v>
       </c>
       <c r="J108" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L108" s="19" t="s">
         <v>15</v>
@@ -9611,10 +9662,10 @@
         <v>160</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P108" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q108" t="str">
         <f t="shared" si="16"/>
@@ -9649,10 +9700,10 @@
         <v>24</v>
       </c>
       <c r="J109" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L109" s="22" t="s">
         <v>15</v>
@@ -9664,10 +9715,10 @@
         <v>195</v>
       </c>
       <c r="O109" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="P109" s="36" t="s">
         <v>380</v>
-      </c>
-      <c r="P109" s="36" t="s">
-        <v>381</v>
       </c>
       <c r="Q109" t="str">
         <f t="shared" si="16"/>
@@ -9702,10 +9753,10 @@
         <v>81</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L110" s="19" t="s">
         <v>15</v>
@@ -9717,10 +9768,10 @@
         <v>170</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P110" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q110" t="str">
         <f t="shared" si="16"/>
@@ -9755,10 +9806,10 @@
         <v>53</v>
       </c>
       <c r="J111" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L111" s="22" t="s">
         <v>15</v>
@@ -9770,10 +9821,10 @@
         <v>220</v>
       </c>
       <c r="O111" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P111" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q111" t="str">
         <f t="shared" si="16"/>
@@ -9808,10 +9859,10 @@
         <v>12</v>
       </c>
       <c r="J112" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L112" s="19" t="s">
         <v>15</v>
@@ -9823,10 +9874,10 @@
         <v>190</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P112" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q112" t="str">
         <f t="shared" si="16"/>
@@ -9862,13 +9913,13 @@
         <v>94</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M113" s="24">
         <v>43619</v>
@@ -9877,10 +9928,10 @@
         <v>305</v>
       </c>
       <c r="O113" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="P113" s="36" t="s">
         <v>389</v>
-      </c>
-      <c r="P113" s="36" t="s">
-        <v>390</v>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="16"/>
@@ -9916,13 +9967,13 @@
         <v>4</v>
       </c>
       <c r="J114" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M114" s="21">
         <v>43619</v>
@@ -9931,10 +9982,10 @@
         <v>215</v>
       </c>
       <c r="O114" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P114" s="34" t="s">
         <v>392</v>
-      </c>
-      <c r="P114" s="34" t="s">
-        <v>393</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" si="16"/>
@@ -9969,13 +10020,13 @@
         <v>15</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M115" s="27">
         <v>36678</v>
@@ -9984,10 +10035,10 @@
         <v>200</v>
       </c>
       <c r="O115" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="P115" s="36" t="s">
         <v>373</v>
-      </c>
-      <c r="P115" s="36" t="s">
-        <v>374</v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" si="16"/>
@@ -10022,13 +10073,13 @@
         <v>42</v>
       </c>
       <c r="J116" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M116" s="21">
         <v>43620</v>
@@ -10037,10 +10088,10 @@
         <v>310</v>
       </c>
       <c r="O116" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="P116" s="34" t="s">
         <v>396</v>
-      </c>
-      <c r="P116" s="34" t="s">
-        <v>397</v>
       </c>
       <c r="Q116" t="str">
         <f t="shared" si="16"/>
@@ -10075,13 +10126,13 @@
         <v>44</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M117" s="24">
         <v>43619</v>
@@ -10090,10 +10141,10 @@
         <v>245</v>
       </c>
       <c r="O117" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P117" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="16"/>
@@ -10128,13 +10179,13 @@
         <v>30</v>
       </c>
       <c r="J118" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M118" s="21">
         <v>43595</v>
@@ -10143,10 +10194,10 @@
         <v>215</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P118" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" si="16"/>
@@ -10181,13 +10232,13 @@
         <v>7</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M119" s="24">
         <v>43619</v>
@@ -10196,10 +10247,10 @@
         <v>225</v>
       </c>
       <c r="O119" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="P119" s="36" t="s">
         <v>402</v>
-      </c>
-      <c r="P119" s="36" t="s">
-        <v>403</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" si="16"/>
@@ -10234,13 +10285,13 @@
         <v>49</v>
       </c>
       <c r="J120" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K120" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L120" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M120" s="40">
         <v>43621</v>
@@ -10249,10 +10300,10 @@
         <v>260</v>
       </c>
       <c r="O120" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="P120" s="42" t="s">
         <v>405</v>
-      </c>
-      <c r="P120" s="42" t="s">
-        <v>406</v>
       </c>
       <c r="Q120" t="str">
         <f t="shared" si="16"/>
@@ -10281,80 +10332,542 @@
       <c r="O122" s="46"/>
       <c r="P122" s="46"/>
     </row>
-    <row r="123" spans="1:17">
-      <c r="A123" t="s">
+    <row r="123" spans="1:17" ht="30.95" customHeight="1">
+      <c r="A123" s="15"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="44"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="43"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="46"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" t="s">
         <v>59</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>60</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G123" s="6" t="s">
+      <c r="F124" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H124" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H123" s="6" t="s">
+      <c r="I124" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="J124" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17">
-      <c r="A124">
-        <v>7</v>
-      </c>
-      <c r="E124" t="s">
-        <v>64</v>
-      </c>
-      <c r="F124" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="A125">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>500</v>
+      </c>
+      <c r="C125" s="6">
+        <v>19</v>
+      </c>
+      <c r="D125">
+        <v>13</v>
+      </c>
+      <c r="E125" t="str">
+        <f>IF(C125&gt;D125,"T","F")</f>
+        <v>T</v>
       </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>501</v>
+      </c>
+      <c r="G125">
+        <v>399</v>
+      </c>
+      <c r="H125">
+        <v>262</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126" s="6">
+        <v>30</v>
+      </c>
+      <c r="D126">
+        <v>24</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" ref="E126:E139" si="22">IF(C126&gt;D126,"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="F126" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126">
+        <v>414</v>
+      </c>
+      <c r="H126">
+        <v>386</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>504</v>
+      </c>
+      <c r="C127" s="6">
+        <v>59</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F127" t="s">
+        <v>65</v>
+      </c>
+      <c r="G127">
+        <v>555</v>
+      </c>
+      <c r="H127">
+        <v>102</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>505</v>
+      </c>
+      <c r="C128" s="6">
+        <v>26</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F128" t="s">
+        <v>501</v>
+      </c>
+      <c r="G128">
+        <v>442</v>
+      </c>
+      <c r="H128">
+        <v>124</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+      <c r="J128" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>506</v>
+      </c>
+      <c r="C129" s="6">
+        <v>42</v>
+      </c>
+      <c r="D129">
+        <v>36</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F129" t="s">
+        <v>65</v>
+      </c>
+      <c r="G129">
+        <v>507</v>
+      </c>
+      <c r="H129">
+        <v>568</v>
+      </c>
+      <c r="I129">
+        <v>5</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>507</v>
+      </c>
+      <c r="C130" s="6">
+        <v>56</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F130" t="s">
+        <v>501</v>
+      </c>
+      <c r="G130">
+        <v>708</v>
+      </c>
+      <c r="H130">
+        <v>251</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>508</v>
+      </c>
+      <c r="C131" s="6">
+        <v>24</v>
+      </c>
+      <c r="D131">
+        <v>17</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F131" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131">
+        <v>504</v>
+      </c>
+      <c r="H131">
+        <v>397</v>
+      </c>
+      <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>509</v>
+      </c>
+      <c r="C132" s="6">
+        <v>37</v>
+      </c>
+      <c r="D132">
+        <v>34</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F132" t="s">
+        <v>501</v>
+      </c>
+      <c r="G132">
+        <v>511</v>
+      </c>
+      <c r="H132">
+        <v>449</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>510</v>
+      </c>
+      <c r="C133" s="6">
+        <v>54</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F133" t="s">
+        <v>65</v>
+      </c>
+      <c r="G133">
+        <v>565</v>
+      </c>
+      <c r="H133">
+        <v>277</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>511</v>
+      </c>
+      <c r="C134" s="6">
+        <v>42</v>
+      </c>
+      <c r="D134">
+        <v>43</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F134" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134">
+        <v>630</v>
+      </c>
+      <c r="H134">
+        <v>464</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
+      <c r="B135" t="s">
+        <v>512</v>
+      </c>
+      <c r="C135" s="6">
+        <v>35</v>
+      </c>
+      <c r="D135">
+        <v>13</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F135" t="s">
+        <v>501</v>
+      </c>
+      <c r="G135">
+        <v>465</v>
+      </c>
+      <c r="H135">
+        <v>197</v>
+      </c>
+      <c r="I135">
+        <v>5</v>
+      </c>
+      <c r="J135" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
         <v>12</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
+      <c r="B136" t="s">
+        <v>513</v>
+      </c>
+      <c r="C136" s="6">
+        <v>56</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F136" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136">
+        <v>622</v>
+      </c>
+      <c r="H136">
+        <v>218</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
         <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>514</v>
+      </c>
+      <c r="C137" s="6">
+        <v>42</v>
+      </c>
+      <c r="D137">
+        <v>35</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F137" t="s">
+        <v>66</v>
+      </c>
+      <c r="G137">
+        <v>470</v>
+      </c>
+      <c r="H137">
+        <v>386</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>515</v>
+      </c>
+      <c r="C138" s="6">
+        <v>31</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F138" t="s">
+        <v>66</v>
+      </c>
+      <c r="G138">
+        <v>470</v>
+      </c>
+      <c r="H138">
+        <v>217</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>516</v>
+      </c>
+      <c r="C139" s="6">
+        <v>35</v>
+      </c>
+      <c r="D139">
+        <v>31</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F139" t="s">
+        <v>66</v>
+      </c>
+      <c r="G139">
+        <v>511</v>
+      </c>
+      <c r="H139">
+        <v>376</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10446,10 +10959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3DE190-3B33-E643-BE26-E876BF115F0E}">
-  <dimension ref="A1:BR127"/>
+  <dimension ref="A1:BR132"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10471,7 +10984,7 @@
         <v>50</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:70">
@@ -10514,66 +11027,66 @@
       <c r="M2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47"/>
+      <c r="BE2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="47"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="47"/>
+      <c r="BN2" s="47"/>
+      <c r="BO2" s="47"/>
+      <c r="BP2" s="47"/>
+      <c r="BQ2" s="47"/>
+      <c r="BR2" s="47"/>
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C3" s="1" t="e">
         <f>VLOOKUP(B3,$O$4:$Y$12,3,FALSE)</f>
@@ -10675,10 +11188,10 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="e">
         <f t="shared" ref="C4:C8" si="0">VLOOKUP(B4,$O$4:$Y$12,3,FALSE)</f>
@@ -10780,10 +11293,10 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" s="1" t="e">
         <f t="shared" si="0"/>
@@ -10885,10 +11398,10 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="1" t="e">
         <f t="shared" si="0"/>
@@ -10990,10 +11503,10 @@
     </row>
     <row r="7" spans="1:70" ht="25.5">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C7" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11072,10 +11585,10 @@
     </row>
     <row r="8" spans="1:70" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1" t="e">
         <f t="shared" si="0"/>
@@ -11312,20 +11825,20 @@
       <c r="I12" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
@@ -11345,10 +11858,10 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" t="e">
         <f>VLOOKUP(B13,$AA$4:$AN$36,3,FALSE)</f>
@@ -11411,10 +11924,10 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" ref="C14:C18" si="11">VLOOKUP(B14,$AA$4:$AN$36,3,FALSE)</f>
@@ -11477,10 +11990,10 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="11"/>
@@ -11543,10 +12056,10 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="11"/>
@@ -11609,10 +12122,10 @@
     </row>
     <row r="17" spans="1:57" ht="25.5">
       <c r="A17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="11"/>
@@ -11675,10 +12188,10 @@
     </row>
     <row r="18" spans="1:57" ht="25.5">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="11"/>
@@ -11901,10 +12414,10 @@
     </row>
     <row r="24" spans="1:57">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C24" t="e">
         <f>VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
@@ -11941,10 +12454,10 @@
     </row>
     <row r="25" spans="1:57">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" ref="C25:C49" si="18">VLOOKUP(B25,$AA$4:$AN$36,7,FALSE)</f>
@@ -11981,10 +12494,10 @@
     </row>
     <row r="26" spans="1:57">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="18"/>
@@ -12021,10 +12534,10 @@
     </row>
     <row r="27" spans="1:57" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="18"/>
@@ -12045,10 +12558,10 @@
     </row>
     <row r="28" spans="1:57">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="18"/>
@@ -12069,10 +12582,10 @@
     </row>
     <row r="29" spans="1:57">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="18"/>
@@ -12093,10 +12606,10 @@
     </row>
     <row r="30" spans="1:57" ht="25.5">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="18"/>
@@ -12117,10 +12630,10 @@
     </row>
     <row r="31" spans="1:57" ht="25.5">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="18"/>
@@ -12141,10 +12654,10 @@
     </row>
     <row r="32" spans="1:57">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="18"/>
@@ -12165,10 +12678,10 @@
     </row>
     <row r="33" spans="1:6" ht="25.5">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="18"/>
@@ -12189,10 +12702,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="18"/>
@@ -12213,10 +12726,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="18"/>
@@ -12237,10 +12750,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="18"/>
@@ -12261,10 +12774,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="18"/>
@@ -12285,10 +12798,10 @@
     </row>
     <row r="38" spans="1:6" ht="25.5">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C38" t="e">
         <f t="shared" si="18"/>
@@ -12309,10 +12822,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" t="e">
         <f t="shared" si="18"/>
@@ -12333,10 +12846,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C40" t="e">
         <f t="shared" si="18"/>
@@ -12357,10 +12870,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C41" t="e">
         <f t="shared" si="18"/>
@@ -12381,10 +12894,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C42" t="e">
         <f t="shared" si="18"/>
@@ -12405,10 +12918,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C43" t="e">
         <f t="shared" si="18"/>
@@ -12429,10 +12942,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C44" t="e">
         <f t="shared" si="18"/>
@@ -12453,10 +12966,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C45" t="e">
         <f t="shared" si="18"/>
@@ -12477,10 +12990,10 @@
     </row>
     <row r="46" spans="1:6" ht="25.5">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C46" t="e">
         <f t="shared" si="18"/>
@@ -12501,10 +13014,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C47" t="e">
         <f t="shared" si="18"/>
@@ -12525,10 +13038,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C48" t="e">
         <f t="shared" si="18"/>
@@ -12549,10 +13062,10 @@
     </row>
     <row r="49" spans="1:13" ht="25.5">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C49" t="e">
         <f t="shared" si="18"/>
@@ -12624,10 +13137,10 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C53" t="e">
         <f>VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
@@ -12676,10 +13189,10 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C54" t="e">
         <f t="shared" ref="C54:C101" si="22">VLOOKUP(B54,$AP$4:$BE$26,3,FALSE)</f>
@@ -12728,10 +13241,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C55" t="e">
         <f t="shared" si="22"/>
@@ -12780,10 +13293,10 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C56" t="e">
         <f t="shared" si="22"/>
@@ -12832,10 +13345,10 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C57" t="e">
         <f t="shared" si="22"/>
@@ -12884,10 +13397,10 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C58" t="e">
         <f t="shared" si="22"/>
@@ -12936,10 +13449,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C59" t="e">
         <f t="shared" si="22"/>
@@ -12988,10 +13501,10 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C60" t="e">
         <f t="shared" si="22"/>
@@ -13040,10 +13553,10 @@
     </row>
     <row r="61" spans="1:13" ht="25.5">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C61" t="e">
         <f t="shared" si="22"/>
@@ -13092,10 +13605,10 @@
     </row>
     <row r="62" spans="1:13" ht="25.5">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C62" t="e">
         <f t="shared" si="22"/>
@@ -13144,10 +13657,10 @@
     </row>
     <row r="63" spans="1:13" ht="25.5">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C63" t="e">
         <f t="shared" si="22"/>
@@ -13196,10 +13709,10 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C64" t="e">
         <f t="shared" si="22"/>
@@ -13248,10 +13761,10 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C65" t="e">
         <f t="shared" si="22"/>
@@ -13300,10 +13813,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C66" t="e">
         <f t="shared" si="22"/>
@@ -13352,10 +13865,10 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C67" t="e">
         <f t="shared" si="22"/>
@@ -13404,10 +13917,10 @@
     </row>
     <row r="68" spans="1:13" ht="25.5">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C68" t="e">
         <f t="shared" si="22"/>
@@ -13456,10 +13969,10 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C69" t="e">
         <f t="shared" si="22"/>
@@ -13508,10 +14021,10 @@
     </row>
     <row r="70" spans="1:13" ht="25.5">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C70" t="e">
         <f t="shared" si="22"/>
@@ -13560,10 +14073,10 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C71" t="e">
         <f t="shared" si="22"/>
@@ -13612,10 +14125,10 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C72" t="e">
         <f t="shared" si="22"/>
@@ -13664,10 +14177,10 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C73" t="e">
         <f t="shared" si="22"/>
@@ -13716,10 +14229,10 @@
     </row>
     <row r="74" spans="1:13" ht="25.5">
       <c r="A74" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C74" t="e">
         <f t="shared" si="22"/>
@@ -13768,10 +14281,10 @@
     </row>
     <row r="75" spans="1:13" ht="25.5">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C75" t="e">
         <f t="shared" si="22"/>
@@ -13820,10 +14333,10 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C76" t="e">
         <f t="shared" si="22"/>
@@ -13872,10 +14385,10 @@
     </row>
     <row r="77" spans="1:13" ht="25.5">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C77" t="e">
         <f t="shared" si="22"/>
@@ -13924,10 +14437,10 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C78" t="e">
         <f t="shared" si="22"/>
@@ -13976,10 +14489,10 @@
     </row>
     <row r="79" spans="1:13" ht="25.5">
       <c r="A79" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C79" t="e">
         <f t="shared" si="22"/>
@@ -14028,10 +14541,10 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C80" t="e">
         <f t="shared" si="22"/>
@@ -14080,10 +14593,10 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C81" t="e">
         <f t="shared" si="22"/>
@@ -14132,10 +14645,10 @@
     </row>
     <row r="82" spans="1:13" ht="25.5">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C82" t="e">
         <f t="shared" si="22"/>
@@ -14184,10 +14697,10 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C83" t="e">
         <f t="shared" si="22"/>
@@ -14236,10 +14749,10 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C84" t="e">
         <f t="shared" si="22"/>
@@ -14288,10 +14801,10 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C85" t="e">
         <f t="shared" si="22"/>
@@ -14340,10 +14853,10 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C86" t="e">
         <f t="shared" si="22"/>
@@ -14392,10 +14905,10 @@
     </row>
     <row r="87" spans="1:13" ht="25.5">
       <c r="A87" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C87" t="e">
         <f t="shared" si="22"/>
@@ -14444,10 +14957,10 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C88" t="e">
         <f t="shared" si="22"/>
@@ -14496,10 +15009,10 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C89" t="e">
         <f t="shared" si="22"/>
@@ -14548,10 +15061,10 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C90" t="e">
         <f t="shared" si="22"/>
@@ -14600,10 +15113,10 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C91" t="e">
         <f t="shared" si="22"/>
@@ -14652,10 +15165,10 @@
     </row>
     <row r="92" spans="1:13" ht="25.5">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C92" t="e">
         <f t="shared" si="22"/>
@@ -14704,10 +15217,10 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C93" t="e">
         <f t="shared" si="22"/>
@@ -14756,10 +15269,10 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C94" t="e">
         <f t="shared" si="22"/>
@@ -14808,10 +15321,10 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C95" t="e">
         <f t="shared" si="22"/>
@@ -14860,10 +15373,10 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C96" t="e">
         <f t="shared" si="22"/>
@@ -14912,10 +15425,10 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C97" t="e">
         <f t="shared" si="22"/>
@@ -14964,10 +15477,10 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C98" t="e">
         <f t="shared" si="22"/>
@@ -15016,10 +15529,10 @@
     </row>
     <row r="99" spans="1:13" ht="25.5">
       <c r="A99" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C99" t="e">
         <f t="shared" si="22"/>
@@ -15068,10 +15581,10 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C100" t="e">
         <f t="shared" si="22"/>
@@ -15120,10 +15633,10 @@
     </row>
     <row r="101" spans="1:13" ht="25.5">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C101" t="e">
         <f t="shared" si="22"/>
@@ -15184,345 +15697,345 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1"/>
-      <c r="B105" s="16"/>
-    </row>
-    <row r="106" spans="1:13" ht="23.25">
-      <c r="A106" s="12" t="s">
+      <c r="B105" s="18"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1"/>
+      <c r="B106" s="18"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1"/>
+      <c r="B107" s="18"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1"/>
+      <c r="B108" s="18"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1"/>
+      <c r="B109" s="18"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1"/>
+      <c r="B110" s="16"/>
+    </row>
+    <row r="111" spans="1:13" ht="23.25">
+      <c r="A111" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B106" s="16"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="7" t="s">
+      <c r="B111" s="16"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B112" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C112" t="s">
         <v>41</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D112" t="s">
         <v>42</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E112" t="s">
         <v>43</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F112" t="s">
         <v>44</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G112" t="s">
         <v>56</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H112" t="s">
         <v>45</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I112" t="s">
         <v>57</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J112" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B108" s="17" t="s">
+    <row r="113" spans="1:10" ht="25.5">
+      <c r="A113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="C113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$16,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="25.5">
+      <c r="A114" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$16,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J108" t="e">
-        <f>VLOOKUP(B108,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="25.5">
-      <c r="A109" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B109" s="17" t="s">
+      <c r="C114" t="e">
+        <f t="shared" ref="C114:C119" si="33">VLOOKUP(B114,$BG$4:$BR$16,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" t="e">
+        <f t="shared" ref="D114:D119" si="34">VLOOKUP(B114,$BG$4:$BR$6,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" t="e">
+        <f t="shared" ref="E114:E119" si="35">VLOOKUP(B114,$BG$4:$BR$6,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" t="e">
+        <f t="shared" ref="F114:F119" si="36">VLOOKUP(B114,$BG$4:$BR$6,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="e">
+        <f t="shared" ref="G114:G119" si="37">VLOOKUP(B114,$BG$4:$BR$6,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" t="e">
+        <f t="shared" ref="H114:H119" si="38">VLOOKUP(B114,$BG$4:$BR$6,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I114" t="e">
+        <f t="shared" ref="I114:I119" si="39">VLOOKUP(B114,$BG$4:$BR$6,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J114" t="e">
+        <f t="shared" ref="J114:J119" si="40">VLOOKUP(B114,$BG$4:$BR$6,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B115" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="C109" t="e">
-        <f t="shared" ref="C109:C114" si="33">VLOOKUP(B109,$BG$4:$BR$16,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D109" t="e">
-        <f t="shared" ref="D109:D114" si="34">VLOOKUP(B109,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E109" t="e">
-        <f t="shared" ref="E109:E114" si="35">VLOOKUP(B109,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" t="e">
-        <f t="shared" ref="F109:F114" si="36">VLOOKUP(B109,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" t="e">
-        <f t="shared" ref="G109:G114" si="37">VLOOKUP(B109,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" t="e">
-        <f t="shared" ref="H109:H114" si="38">VLOOKUP(B109,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="e">
-        <f t="shared" ref="I109:I114" si="39">VLOOKUP(B109,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J109" t="e">
-        <f t="shared" ref="J109:J114" si="40">VLOOKUP(B109,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B110" s="17" t="s">
+      <c r="C115" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H115" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I115" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J115" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="C110" t="e">
+      <c r="C116" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="D110" t="e">
+      <c r="D116" t="e">
         <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
-      <c r="E110" t="e">
+      <c r="E116" t="e">
         <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
-      <c r="F110" t="e">
+      <c r="F116" t="e">
         <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="G110" t="e">
+      <c r="G116" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="H110" t="e">
+      <c r="H116" t="e">
         <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="I110" t="e">
+      <c r="I116" t="e">
         <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="J110" t="e">
+      <c r="J116" t="e">
         <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B111" s="17" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="C111" t="e">
+      <c r="C117" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="D111" t="e">
+      <c r="D117" t="e">
         <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
-      <c r="E111" t="e">
+      <c r="E117" t="e">
         <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
-      <c r="F111" t="e">
+      <c r="F117" t="e">
         <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="G111" t="e">
+      <c r="G117" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="H111" t="e">
+      <c r="H117" t="e">
         <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="I111" t="e">
+      <c r="I117" t="e">
         <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="J111" t="e">
+      <c r="J117" t="e">
         <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" s="17" t="s">
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="C112" t="e">
+      <c r="C118" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="D112" t="e">
+      <c r="D118" t="e">
         <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
-      <c r="E112" t="e">
+      <c r="E118" t="e">
         <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
-      <c r="F112" t="e">
+      <c r="F118" t="e">
         <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="G112" t="e">
+      <c r="G118" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="H112" t="e">
+      <c r="H118" t="e">
         <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="I112" t="e">
+      <c r="I118" t="e">
         <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="J112" t="e">
+      <c r="J118" t="e">
         <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B113" s="17" t="s">
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C113" t="e">
+      <c r="C119" t="e">
         <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
-      <c r="D113" t="e">
+      <c r="D119" t="e">
         <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
-      <c r="E113" t="e">
+      <c r="E119" t="e">
         <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
-      <c r="F113" t="e">
+      <c r="F119" t="e">
         <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="G113" t="e">
+      <c r="G119" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="H113" t="e">
+      <c r="H119" t="e">
         <f t="shared" si="38"/>
         <v>#N/A</v>
       </c>
-      <c r="I113" t="e">
+      <c r="I119" t="e">
         <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
-      <c r="J113" t="e">
+      <c r="J119" t="e">
         <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="C114" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D114" t="e">
-        <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E114" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F114" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H114" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="e">
-        <f t="shared" si="39"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J114" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="1"/>
-      <c r="B115" s="16"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="1"/>
-      <c r="B116" s="16"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="1"/>
-      <c r="B117" s="16"/>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="1"/>
-      <c r="B118" s="16"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="1"/>
-      <c r="B119" s="16"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1"/>
@@ -15555,6 +16068,26 @@
     <row r="127" spans="1:10">
       <c r="A127" s="1"/>
       <c r="B127" s="16"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1"/>
+      <c r="B128" s="16"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="16"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="16"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="16"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/2016.xlsx
+++ b/2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66923C2-EE29-4449-B78C-51FEA1C32FDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC531FF-E532-4EC6-92AD-C5C5E6EABA3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="270" windowWidth="21450" windowHeight="14385" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="3120" yWindow="1815" windowWidth="21450" windowHeight="14385" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Depth" sheetId="2" r:id="rId1"/>
@@ -3834,7 +3834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
   <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
@@ -10961,8 +10961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3DE190-3B33-E643-BE26-E876BF115F0E}">
   <dimension ref="A1:BR132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11121,15 +11121,15 @@
         <v>#N/A</v>
       </c>
       <c r="K3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="16"/>
@@ -11226,15 +11226,15 @@
         <v>#N/A</v>
       </c>
       <c r="K4" s="1" t="e">
-        <f t="shared" ref="K4:K8" si="8">VLOOKUP(B4,$O$14:$X$36,3,FALSE)</f>
+        <f t="shared" ref="K4:K8" si="8">VLOOKUP(B4,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f t="shared" ref="L4:L8" si="9">VLOOKUP(B4,$O$14:$X$36,4,FALSE)</f>
+        <f t="shared" ref="L4:L8" si="9">VLOOKUP(B4,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="1" t="e">
-        <f t="shared" ref="M4:M8" si="10">VLOOKUP(B4,$O$14:$X$36,6,FALSE)</f>
+        <f t="shared" ref="M4:M8" si="10">VLOOKUP(B4,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O4" s="16"/>
@@ -13143,47 +13143,47 @@
         <v>444</v>
       </c>
       <c r="C53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f>VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -13195,47 +13195,47 @@
         <v>445</v>
       </c>
       <c r="C54" t="e">
-        <f t="shared" ref="C54:C101" si="22">VLOOKUP(B54,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" ref="C54:C101" si="22">VLOOKUP(B54,$AP$4:$BE$256,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f t="shared" ref="D54:D101" si="23">VLOOKUP(B54,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" ref="D54:D101" si="23">VLOOKUP(B54,$AP$4:$BE$256,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f t="shared" ref="E54:E101" si="24">VLOOKUP(B54,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" ref="E54:E101" si="24">VLOOKUP(B54,$AP$4:$BE$256,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f t="shared" ref="F54:F101" si="25">VLOOKUP(B54,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" ref="F54:F101" si="25">VLOOKUP(B54,$AP$4:$BE$256,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f t="shared" ref="G54:G101" si="26">VLOOKUP(B54,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" ref="G54:G101" si="26">VLOOKUP(B54,$AP$4:$BE$256,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" ref="H54:H101" si="27">VLOOKUP(B54,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" ref="H54:H101" si="27">VLOOKUP(B54,$AP$4:$BE$256,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" ref="I54:I101" si="28">VLOOKUP(B54,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" ref="I54:I101" si="28">VLOOKUP(B54,$AP$4:$BE$256,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" ref="J54:J101" si="29">VLOOKUP(B54,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" ref="J54:J101" si="29">VLOOKUP(B54,$AP$4:$BE$256,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f t="shared" ref="K54:K101" si="30">VLOOKUP(B54,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" ref="K54:K101" si="30">VLOOKUP(B54,$AP$4:$BE$256,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f t="shared" ref="L54:L101" si="31">VLOOKUP(B54,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" ref="L54:L101" si="31">VLOOKUP(B54,$AP$4:$BE$256,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f t="shared" ref="M54:M101" si="32">VLOOKUP(B54,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" ref="M54:M101" si="32">VLOOKUP(B54,$AP$4:$BE$256,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
